--- a/资料/小组计划实施表.xlsx
+++ b/资料/小组计划实施表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="14505" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="115">
   <si>
     <t>小组计划实施表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,15 +41,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张珊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李萍</t>
+    <t>吕意铎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马孝民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魏万喜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐思源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨华邦</t>
+  </si>
+  <si>
+    <t>袁萍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤维护部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤组织部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成统计信息部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成考勤签到部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成个人信息维护部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成系统用户管理部分用例规约文字描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：文字规约的内容需要再详细一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计登录注册页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计加入考勤组织和签到页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计增删改查组织和增删改查考勤页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计导出考勤情况和增删改查角色页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成一半</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配任务过多，下次要注意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -57,19 +140,343 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期：2017.9.1 第一周 周一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张，，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>，，</t>
+    <t>日期：2017.9.11 第三周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习modao软件的团队开发以及整合其他人的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进个人信息维护和导出记录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统一小组设计风格，改进考勤签到界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计后台架构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成基本框架以及pojo类设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为其他人进度问题，尚未整合全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤签到界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进个人信息维护和导出记录页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤组织维护页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合总界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.13 第三周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.6 第二周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计主界面和改查个人信息页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：回去得继续做，进度慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.18 第四周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续改进考勤维护界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤组织维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考考勤签到具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考个人信息维护具体代码实现的步骤，要求通用性、扩展性强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进所有页面中不合理或者不够好的地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写出后台提供给页面交互的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.19 第四周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试用混合式开发替换昨天相同模块的代码实现，对比两者不同以及优缺点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤组织维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计考勤签到数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计个人信息维护数据库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.20 第四周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习mybatis，做一个单表增删改查数据的Demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.25 第五周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个人信息维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤签到数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤组织维护数据库表文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进后台原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.26 第五周 周二 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行小马公司给的springboot框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查数据库文档是否有遗漏错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续了解小马公司的框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查用例规约文档是否有遗漏错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找安卓扫描二维码的实现方法并运行例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.9.27 第五周 周三 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找安卓扫描二维码的实现方法并运行例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.16 第八周 周一 下午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个人信息维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤组织维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写考勤维护模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟万喜一起合作写考勤维护模块的持久层接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟思源一起合作写考勤组织维护模块的持久层接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：备注，查询列表的时候要记得分页查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写签到模块的持久层接口文档，参考给出的前后台接口文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2017.10.18 第八周 周三 上午</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,6 +504,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -105,6 +513,7 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -151,27 +560,32 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -497,21 +911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A135" sqref="A135:D135"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.1640625" customWidth="1"/>
+    <col min="1" max="1" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="85.125" customWidth="1"/>
+    <col min="3" max="3" width="41.125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" customHeight="1">
+    <row r="1" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -519,205 +933,1448 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" ht="28" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="83" customHeight="1">
-      <c r="A4" s="4" t="s">
+    <row r="13" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="84" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="57" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A65" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A75" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="77" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A85" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="87" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A88" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A95" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="97" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A98" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A105" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="107" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A115" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="117" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A118" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A125" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="127" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C130" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="86" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" ht="94" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" ht="68" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="32" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="B132" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="36" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="142" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="142" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" ht="142" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="142" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="68" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="21">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="21">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="21">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="21">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" ht="21">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" ht="21">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="21">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" ht="21">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="21">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" ht="21">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" ht="21">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="B133" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A135" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="29">
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A127:D127"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A65:D65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
